--- a/results/CIFAR10/simplecnn/noise_0.1/SR-Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR10/simplecnn/noise_0.1/SR-Adam/runs_and_aggregate.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,7 +487,7 @@
         <v>46.52</v>
       </c>
       <c r="F2" t="n">
-        <v>36.33690595626831</v>
+        <v>30.25177407264709</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>54.58</v>
       </c>
       <c r="F3" t="n">
-        <v>36.30906748771668</v>
+        <v>30.05023574829102</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>57.91</v>
       </c>
       <c r="F4" t="n">
-        <v>36.26724243164063</v>
+        <v>30.02302861213684</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>62.36</v>
       </c>
       <c r="F5" t="n">
-        <v>35.71279096603394</v>
+        <v>29.9938018321991</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>64.28</v>
       </c>
       <c r="F6" t="n">
-        <v>35.36287403106689</v>
+        <v>29.97183775901794</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>66.28</v>
       </c>
       <c r="F7" t="n">
-        <v>35.43519520759583</v>
+        <v>29.96538615226746</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>68.38</v>
       </c>
       <c r="F8" t="n">
-        <v>36.15032339096069</v>
+        <v>29.88832664489746</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>70.34999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>37.34457612037659</v>
+        <v>29.82996368408203</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>70.14</v>
       </c>
       <c r="F10" t="n">
-        <v>36.51171064376831</v>
+        <v>29.97231841087341</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>71.98999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>35.57245922088623</v>
+        <v>30.4281747341156</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>71.41</v>
       </c>
       <c r="F12" t="n">
-        <v>35.50745463371277</v>
+        <v>29.95809626579285</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>72.56999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>35.409019947052</v>
+        <v>29.89967465400696</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>71.33</v>
       </c>
       <c r="F14" t="n">
-        <v>35.21622562408447</v>
+        <v>29.93186545372009</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>73.23</v>
       </c>
       <c r="F15" t="n">
-        <v>35.28651690483093</v>
+        <v>29.99841547012329</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>73.76000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>35.418776512146</v>
+        <v>29.8017270565033</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>73.67</v>
       </c>
       <c r="F17" t="n">
-        <v>35.6454131603241</v>
+        <v>29.88027691841125</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>74.8</v>
       </c>
       <c r="F18" t="n">
-        <v>35.33431172370911</v>
+        <v>29.83977055549622</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>74.56</v>
       </c>
       <c r="F19" t="n">
-        <v>35.64252996444702</v>
+        <v>29.9912941455841</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>73.48999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>35.34135580062866</v>
+        <v>29.90792393684387</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>75.79000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>35.44496369361877</v>
+        <v>30.32831263542176</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>46.42</v>
       </c>
       <c r="F2" t="n">
-        <v>35.48193836212158</v>
+        <v>30.17731547355652</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>54.03</v>
       </c>
       <c r="F3" t="n">
-        <v>34.90439200401306</v>
+        <v>30.03387403488159</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>57.87</v>
       </c>
       <c r="F4" t="n">
-        <v>34.52513074874878</v>
+        <v>29.96002197265625</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>62.86</v>
       </c>
       <c r="F5" t="n">
-        <v>34.57840704917908</v>
+        <v>30.05636024475098</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>66.09</v>
       </c>
       <c r="F6" t="n">
-        <v>34.90580487251282</v>
+        <v>30.01436924934387</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>67.02</v>
       </c>
       <c r="F7" t="n">
-        <v>37.0086395740509</v>
+        <v>30.10537576675415</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>70.05</v>
       </c>
       <c r="F8" t="n">
-        <v>37.04635953903198</v>
+        <v>29.94202184677124</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>69.81</v>
       </c>
       <c r="F9" t="n">
-        <v>35.41162943840027</v>
+        <v>29.91912245750427</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>71.87</v>
       </c>
       <c r="F10" t="n">
-        <v>35.30131006240845</v>
+        <v>30.04311943054199</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>72.05</v>
       </c>
       <c r="F11" t="n">
-        <v>35.25325846672058</v>
+        <v>30.3587737083435</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>72.77</v>
       </c>
       <c r="F12" t="n">
-        <v>35.10512232780457</v>
+        <v>30.05744576454162</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>72.23999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>35.11697316169739</v>
+        <v>30.09493708610535</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>74.02</v>
       </c>
       <c r="F14" t="n">
-        <v>35.48005819320679</v>
+        <v>30.0193338394165</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>73.79000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>35.33152198791504</v>
+        <v>30.10676121711731</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>74.81999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>35.4193868637085</v>
+        <v>30.0355212688446</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>74.69</v>
       </c>
       <c r="F17" t="n">
-        <v>35.3322765827179</v>
+        <v>30.0868775844574</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>74.95999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>35.56824731826782</v>
+        <v>29.95192146301269</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>75.45999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>35.47715520858765</v>
+        <v>30.01825380325317</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>75.61</v>
       </c>
       <c r="F20" t="n">
-        <v>35.21726560592651</v>
+        <v>29.88979983329773</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>74.86</v>
       </c>
       <c r="F21" t="n">
-        <v>35.55064702033997</v>
+        <v>30.312096118927</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>48.48</v>
       </c>
       <c r="F2" t="n">
-        <v>34.8245894908905</v>
+        <v>30.25078916549682</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>56.04</v>
       </c>
       <c r="F3" t="n">
-        <v>34.69148993492126</v>
+        <v>29.97223806381226</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>59.78</v>
       </c>
       <c r="F4" t="n">
-        <v>34.55923128128052</v>
+        <v>29.89531278610229</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>63.4</v>
       </c>
       <c r="F5" t="n">
-        <v>36.28355932235718</v>
+        <v>30.13256931304932</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>67.34</v>
       </c>
       <c r="F6" t="n">
-        <v>36.88749074935913</v>
+        <v>29.98906469345093</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>68.27</v>
       </c>
       <c r="F7" t="n">
-        <v>35.84650921821594</v>
+        <v>30.02297377586365</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>69.88</v>
       </c>
       <c r="F8" t="n">
-        <v>35.42020797729492</v>
+        <v>29.85321617126465</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>71.03</v>
       </c>
       <c r="F9" t="n">
-        <v>35.26297378540039</v>
+        <v>29.82651686668396</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>71.88</v>
       </c>
       <c r="F10" t="n">
-        <v>35.40694499015808</v>
+        <v>29.74919700622558</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>71.63</v>
       </c>
       <c r="F11" t="n">
-        <v>35.28574895858765</v>
+        <v>30.25184345245361</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>72.14</v>
       </c>
       <c r="F12" t="n">
-        <v>35.70483756065369</v>
+        <v>29.9210352897644</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>73.7</v>
       </c>
       <c r="F13" t="n">
-        <v>35.52386450767517</v>
+        <v>29.87582468986511</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>73.65000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>35.56944870948792</v>
+        <v>29.96723008155823</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>73.37</v>
       </c>
       <c r="F15" t="n">
-        <v>35.65451598167419</v>
+        <v>29.84311985969543</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>35.67280173301697</v>
+        <v>29.82358169555664</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>74.87</v>
       </c>
       <c r="F17" t="n">
-        <v>35.50726056098938</v>
+        <v>30.0328266620636</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>74.14</v>
       </c>
       <c r="F18" t="n">
-        <v>35.40937972068787</v>
+        <v>29.91261529922485</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>75.18000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>35.59002614021301</v>
+        <v>29.91936635971069</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>75.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>34.86166524887085</v>
+        <v>29.98606085777283</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>75.86</v>
       </c>
       <c r="F21" t="n">
-        <v>34.60379147529602</v>
+        <v>30.21571969985962</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>48.21</v>
       </c>
       <c r="F2" t="n">
-        <v>34.63089776039124</v>
+        <v>30.20046782493592</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>54.41</v>
       </c>
       <c r="F3" t="n">
-        <v>35.68786239624023</v>
+        <v>30.01102018356323</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>60.21</v>
       </c>
       <c r="F4" t="n">
-        <v>36.78910207748413</v>
+        <v>29.79540157318115</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>63.77</v>
       </c>
       <c r="F5" t="n">
-        <v>36.41907835006714</v>
+        <v>29.95803785324097</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>64.45</v>
       </c>
       <c r="F6" t="n">
-        <v>35.63686108589172</v>
+        <v>29.86515045166016</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>66.98</v>
       </c>
       <c r="F7" t="n">
-        <v>35.23417401313782</v>
+        <v>30.03622674942017</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>67.40000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>35.30263042449951</v>
+        <v>29.92337989807129</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>69.88</v>
       </c>
       <c r="F9" t="n">
-        <v>35.38975048065186</v>
+        <v>29.96232914924622</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>70.84</v>
       </c>
       <c r="F10" t="n">
-        <v>35.38911938667297</v>
+        <v>29.83899784088135</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>70.79000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>35.35491943359375</v>
+        <v>30.20390391349792</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>71.26000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>35.72424459457397</v>
+        <v>29.92948460578918</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>72.42</v>
       </c>
       <c r="F13" t="n">
-        <v>35.40507197380066</v>
+        <v>29.94855785369873</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>72.13</v>
       </c>
       <c r="F14" t="n">
-        <v>35.64948391914368</v>
+        <v>29.92574310302734</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>72.87</v>
       </c>
       <c r="F15" t="n">
-        <v>35.49311232566833</v>
+        <v>30.07432675361633</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>73.25</v>
       </c>
       <c r="F16" t="n">
-        <v>35.77293467521667</v>
+        <v>29.95177435874939</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>74.14</v>
       </c>
       <c r="F17" t="n">
-        <v>35.5911705493927</v>
+        <v>29.94523763656616</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>73.66</v>
       </c>
       <c r="F18" t="n">
-        <v>35.07636713981628</v>
+        <v>29.92781734466553</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>74.68000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>34.64382815361023</v>
+        <v>30.04430389404297</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>75.38</v>
       </c>
       <c r="F20" t="n">
-        <v>34.72044205665588</v>
+        <v>30.14005446434021</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>75.36</v>
       </c>
       <c r="F21" t="n">
-        <v>35.03948760032654</v>
+        <v>30.15230369567871</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>36.80775904655457</v>
+        <v>30.2267017364502</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>54.16</v>
       </c>
       <c r="F3" t="n">
-        <v>36.63221430778504</v>
+        <v>29.89012861251831</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>60.12</v>
       </c>
       <c r="F4" t="n">
-        <v>35.51951169967651</v>
+        <v>29.82972598075867</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>62.87</v>
       </c>
       <c r="F5" t="n">
-        <v>35.03355693817139</v>
+        <v>29.91176557540894</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>64.42</v>
       </c>
       <c r="F6" t="n">
-        <v>35.41912817955017</v>
+        <v>29.90625834465027</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>35.31529688835144</v>
+        <v>30.12267518043518</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>66.66</v>
       </c>
       <c r="F8" t="n">
-        <v>35.40158438682556</v>
+        <v>29.76196551322937</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>68.2</v>
       </c>
       <c r="F9" t="n">
-        <v>35.51891088485718</v>
+        <v>29.77659964561462</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>68.87</v>
       </c>
       <c r="F10" t="n">
-        <v>35.59813904762268</v>
+        <v>30.12089443206787</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>70.09</v>
       </c>
       <c r="F11" t="n">
-        <v>35.4123842716217</v>
+        <v>30.16909146308899</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>71.44</v>
       </c>
       <c r="F12" t="n">
-        <v>35.75041794776917</v>
+        <v>29.92731475830078</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>71.64</v>
       </c>
       <c r="F13" t="n">
-        <v>35.39929270744324</v>
+        <v>29.82842421531677</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>72.14</v>
       </c>
       <c r="F14" t="n">
-        <v>35.66479182243347</v>
+        <v>29.86576271057129</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>72.83</v>
       </c>
       <c r="F15" t="n">
-        <v>35.583979845047</v>
+        <v>29.85349011421204</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>72.59999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>35.65142107009888</v>
+        <v>29.86205983161926</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>73.31</v>
       </c>
       <c r="F17" t="n">
-        <v>34.73372769355774</v>
+        <v>29.94987511634827</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>73.09</v>
       </c>
       <c r="F18" t="n">
-        <v>34.65574979782104</v>
+        <v>29.88572072982788</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>73.25</v>
       </c>
       <c r="F19" t="n">
-        <v>34.67527747154236</v>
+        <v>29.92448139190674</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>72.45</v>
       </c>
       <c r="F20" t="n">
-        <v>36.33277106285095</v>
+        <v>30.06937885284424</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>74.18000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>36.74565553665161</v>
+        <v>30.11360836029053</v>
       </c>
     </row>
   </sheetData>
